--- a/main/ig/StructureDefinition-accomodation-unit.xlsx
+++ b/main/ig/StructureDefinition-accomodation-unit.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/AccomodationUnit</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/accomodation-unit</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T14:46:13+00:00</t>
+    <t>2024-03-22T15:45:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -817,7 +817,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/MedicalLiabilityUnit)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/Medical-liability-unit)
 </t>
   </si>
   <si>
@@ -1264,7 +1264,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.16015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.7890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-accomodation-unit.xlsx
+++ b/main/ig/StructureDefinition-accomodation-unit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T15:45:14+00:00</t>
+    <t>2024-03-25T08:26:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-accomodation-unit.xlsx
+++ b/main/ig/StructureDefinition-accomodation-unit.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/accomodation-unit</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/AccomodationUnit</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T08:26:42+00:00</t>
+    <t>2024-03-25T09:35:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -817,7 +817,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/Medical-liability-unit)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/MedicalLiabilityUnit)
 </t>
   </si>
   <si>
@@ -1264,7 +1264,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.7890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.16015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-accomodation-unit.xlsx
+++ b/main/ig/StructureDefinition-accomodation-unit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:35:47+00:00</t>
+    <t>2024-03-25T10:33:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-accomodation-unit.xlsx
+++ b/main/ig/StructureDefinition-accomodation-unit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T10:33:32+00:00</t>
+    <t>2024-03-25T10:35:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-accomodation-unit.xlsx
+++ b/main/ig/StructureDefinition-accomodation-unit.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/AccomodationUnit</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/accomodation-unit</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T10:35:41+00:00</t>
+    <t>2024-03-27T13:32:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -817,7 +817,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/MedicalLiabilityUnit)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/Medical-liability-unit)
 </t>
   </si>
   <si>
@@ -1264,7 +1264,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.16015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.7890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-accomodation-unit.xlsx
+++ b/main/ig/StructureDefinition-accomodation-unit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T13:32:11+00:00</t>
+    <t>2024-03-27T14:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-accomodation-unit.xlsx
+++ b/main/ig/StructureDefinition-accomodation-unit.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-27T14:50:30+00:00</t>
+    <t>2024-03-29T13:41:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI)</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL</t>
   </si>
   <si>
     <t>Contact</t>

--- a/main/ig/StructureDefinition-accomodation-unit.xlsx
+++ b/main/ig/StructureDefinition-accomodation-unit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:41:33+00:00</t>
+    <t>2024-03-29T13:47:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-accomodation-unit.xlsx
+++ b/main/ig/StructureDefinition-accomodation-unit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-29T13:47:24+00:00</t>
+    <t>2024-04-18T13:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>DOMASIA team of the Signal and Image Processing Laboratory (LTSI) and KEREVAL (https://ltsi.univ-rennes.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/main/ig/StructureDefinition-accomodation-unit.xlsx
+++ b/main/ig/StructureDefinition-accomodation-unit.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T13:54:15+00:00</t>
+    <t>2024-06-11T08:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
